--- a/resource/data/Book1.xlsx
+++ b/resource/data/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -43,13 +43,7 @@
     <t>test_sample4</t>
   </si>
   <si>
-    <t>safari</t>
-  </si>
-  <si>
     <t>test_sample5</t>
-  </si>
-  <si>
-    <t>android</t>
   </si>
 </sst>
 </file>
@@ -443,15 +437,15 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/resource/data/Book1.xlsx
+++ b/resource/data/Book1.xlsx
@@ -19,7 +19,7 @@
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>Input</t>
+    <t>Browser</t>
   </si>
   <si>
     <t>test_sample1</t>
